--- a/WORKLOAD.xlsx
+++ b/WORKLOAD.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t xml:space="preserve">ROHINI COLLEGE OF ENGINEERING AND TECHNOLOGY </t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>I &amp; II MCA</t>
+  </si>
+  <si>
+    <t>hhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhh</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -537,6 +540,97 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -560,96 +654,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -924,7 +928,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -935,7 +939,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H11"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -952,69 +956,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="36" t="s">
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="67" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="32.25" thickBot="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="15" t="s">
         <v>7</v>
       </c>
@@ -1027,13 +1031,13 @@
       <c r="H5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="37"/>
+      <c r="I5" s="68"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="38">
+      <c r="A6" s="30">
         <v>1</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1047,16 +1051,16 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="44">
+      <c r="H6" s="52">
         <v>9</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="36" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="31.5">
-      <c r="A7" s="39"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
@@ -1068,12 +1072,12 @@
       <c r="G7" s="5">
         <v>4</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="48"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="37"/>
     </row>
     <row r="8" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="12" t="s">
         <v>37</v>
       </c>
@@ -1085,14 +1089,14 @@
       <c r="G8" s="14">
         <v>2</v>
       </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="49"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="53">
+      <c r="A9" s="57">
         <v>2</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="16" t="s">
@@ -1106,16 +1110,16 @@
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="50">
+      <c r="H9" s="34">
         <v>13</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="36" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A10" s="54"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="26" t="s">
         <v>38</v>
       </c>
@@ -1127,12 +1131,12 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="48"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A11" s="55"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="18" t="s">
         <v>29</v>
       </c>
@@ -1146,14 +1150,14 @@
       <c r="G11" s="19">
         <v>4</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="49"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="55"/>
     </row>
     <row r="12" spans="1:9" ht="31.5">
-      <c r="A12" s="38">
+      <c r="A12" s="30">
         <v>3</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="32" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -1169,16 +1173,16 @@
       <c r="G12" s="17">
         <v>4</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="34">
         <v>16</v>
       </c>
-      <c r="I12" s="47" t="s">
+      <c r="I12" s="36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="39"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1192,12 +1196,12 @@
       <c r="G13" s="3">
         <v>4</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="48"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="37"/>
     </row>
     <row r="14" spans="1:9" ht="32.25" thickBot="1">
-      <c r="A14" s="39"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="23" t="s">
         <v>36</v>
       </c>
@@ -1209,14 +1213,14 @@
       <c r="G14" s="25">
         <v>2</v>
       </c>
-      <c r="H14" s="51"/>
-      <c r="I14" s="48"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="37"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="56">
+      <c r="A15" s="38">
         <v>4</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="41" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="16" t="s">
@@ -1232,16 +1236,16 @@
       <c r="G15" s="11">
         <v>4</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H15" s="44">
         <v>16</v>
       </c>
-      <c r="I15" s="65" t="s">
+      <c r="I15" s="47" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="57"/>
-      <c r="B16" s="60"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1253,12 +1257,12 @@
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="66"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="48"/>
     </row>
     <row r="17" spans="1:9" ht="31.5">
-      <c r="A17" s="57"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="27" t="s">
         <v>27</v>
       </c>
@@ -1270,12 +1274,12 @@
       <c r="G17" s="3">
         <v>3</v>
       </c>
-      <c r="H17" s="63"/>
-      <c r="I17" s="66"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="48"/>
     </row>
     <row r="18" spans="1:9" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A18" s="58"/>
-      <c r="B18" s="61"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="22" t="s">
         <v>27</v>
       </c>
@@ -1287,8 +1291,13 @@
       <c r="G18" s="19">
         <v>3</v>
       </c>
-      <c r="H18" s="64"/>
-      <c r="I18" s="67"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="49"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="C20" s="29" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="1:9" s="7" customFormat="1" ht="56.25" customHeight="1">
       <c r="C22" s="7" t="s">
@@ -1300,22 +1309,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="A9:A11"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:I3"/>
@@ -1325,6 +1318,22 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="89" orientation="landscape" r:id="rId1"/>
